--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>sdasda</t>
   </si>
@@ -46,6 +46,21 @@
   </si>
   <si>
     <t>sa</t>
+  </si>
+  <si>
+    <t>sdasdas</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>ấdasd</t>
+  </si>
+  <si>
+    <t>ádasd</t>
+  </si>
+  <si>
+    <t>ádas</t>
   </si>
 </sst>
 </file>
@@ -397,48 +412,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J18"/>
+  <dimension ref="A2:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>4</v>
       </c>
@@ -448,28 +479,44 @@
       <c r="H11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>5</v>
       </c>
       <c r="H18" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
